--- a/Desktop/Borang 2.0/Digestion/RB & IQC.xlsx
+++ b/Desktop/Borang 2.0/Digestion/RB & IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A5122-344B-4D6B-B727-61F3D0545510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B193A278-E109-4795-B335-681E88B05666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -62,31 +62,6 @@
   </si>
   <si>
     <t>Berat bersih larutan sampel</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PKKK/200/HMS/003;  PKKK/200/HMS/004</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">(Berat akhir - Berat botol plastik)               </t>
@@ -141,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">H2O2 B/N: </t>
-  </si>
-  <si>
-    <t>Sila Pilih</t>
   </si>
   <si>
     <t>HELPER</t>
@@ -262,6 +234,12 @@
       <t xml:space="preserve">    ( Kaedah F )</t>
     </r>
   </si>
+  <si>
+    <t>(PKKK/200/UAT/003; PKKK/300/UAT/045; PKKK/300/UAT/046)</t>
+  </si>
+  <si>
+    <t>Sila Pilih</t>
+  </si>
 </sst>
 </file>
 
@@ -290,13 +268,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
@@ -371,6 +342,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -404,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -744,19 +721,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,8 +779,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,7 +788,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,26 +809,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,11 +839,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,7 +872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -884,6 +881,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -902,12 +908,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -920,6 +920,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -929,26 +944,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,11 +956,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -980,15 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1003,161 +1003,161 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1213,13 +1213,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1287,13 +1287,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1343025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1724025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1362,13 +1362,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1343025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1724025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1437,13 +1437,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874972</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>22150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>753141</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>132906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1511,13 +1511,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1585,13 +1585,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>305020</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>149078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>465175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>44302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1649,13 +1649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>868768</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>166133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>697762</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>188285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1723,13 +1723,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1797,13 +1797,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>293947</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>5094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>498403</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>55378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1861,13 +1861,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>883167</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>77529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>775290</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>60915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1935,13 +1935,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2009,13 +2009,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>282872</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>11076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>509478</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>223948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2143,13 +2143,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>598082</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>110756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>110756</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>321192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2274,16 +2274,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1152525</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2339,13 +2339,13 @@
   </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>439617</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>813290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="593481" cy="436786"/>
-    <xdr:sp macro="" textlink="[1]Form!$H$2">
+    <xdr:ext cx="725364" cy="248851"/>
+    <xdr:sp macro="" textlink="[1]Form!M5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
@@ -2358,8 +2358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4125059" y="1157654"/>
-          <a:ext cx="593481" cy="436786"/>
+          <a:off x="2982059" y="886558"/>
+          <a:ext cx="725364" cy="248851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,16 +2386,16 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{7A0F557C-B3AC-42A6-B08B-7DF2B3162641}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{19262710-1B2A-4D73-84F0-6BE9D51E8D93}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Sila Pilih</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -2407,13 +2407,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>439614</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1106364</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2457,7 +2457,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>446943</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930519" cy="191290"/>
@@ -2525,13 +2525,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2611,13 +2611,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2697,13 +2697,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2783,13 +2783,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2869,13 +2869,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2953,7 +2953,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930519" cy="264560"/>
@@ -3023,7 +3023,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="893884" cy="264560"/>
@@ -3089,7 +3089,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>124558</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="849923" cy="264560"/>
@@ -3155,7 +3155,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>505558</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1245577" cy="248851"/>
@@ -3227,157 +3227,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520212</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1245577" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$C$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4205654" y="6726115"/>
-          <a:ext cx="1245577" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{6DE1060A-9DFF-4624-A55C-CB36BC30CD5F}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>534865</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1245577" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$C$7">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4220307" y="8022981"/>
-          <a:ext cx="1245577" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{E583FF94-AF0E-4B6F-82D3-2F5691E11432}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>395654</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>307731</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1113693" cy="248851"/>
@@ -3450,156 +3302,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>446943</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>307731</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1113693" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$E$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1421424" y="7173058"/>
-          <a:ext cx="1113693" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{2BCB71E1-F5F5-4612-974F-E968CAC87B42}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>335574</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1113693" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$E$7">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1412632" y="8497766"/>
-          <a:ext cx="1113693" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{A5BE9FEA-4317-4928-9DE2-9A7ED78F8322}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>410308</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="813288" cy="248851"/>
@@ -3645,154 +3349,6 @@
         <a:lstStyle/>
         <a:p>
           <a:fld id="{558023E2-65F1-4AA8-8302-23A178561BB2}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>291611</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="813288" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$D$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="TextBox 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1412632" y="6658707"/>
-          <a:ext cx="813288" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{3117AFB5-9703-4232-A37F-483D6E864EE3}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>436686</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>260838</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="813288" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]Form!$D$7">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1411167" y="7946780"/>
-          <a:ext cx="813288" cy="248851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{F06F8C89-3025-4921-ADCD-992367A33A18}" type="TxLink">
             <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -3895,7 +3451,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>211016</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="886557" cy="248851"/>
@@ -4269,7 +3825,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>498230</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="974481" cy="248851"/>
@@ -4345,7 +3901,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>172915</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="652096" cy="161193"/>
@@ -4403,11 +3959,11 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>373674</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>80597</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="754672" cy="446942"/>
-    <xdr:sp macro="" textlink="E17">
+    <xdr:ext cx="783980" cy="446942"/>
+    <xdr:sp macro="" textlink="E20">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
@@ -4421,7 +3977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4667251" y="3831982"/>
-          <a:ext cx="754672" cy="446942"/>
+          <a:ext cx="783980" cy="446942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4458,6 +4014,72 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="l"/>
+            <a:t> </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="490904" cy="248851"/>
+    <xdr:sp macro="" textlink="[1]Form!$M$6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="1143000"/>
+          <a:ext cx="490904" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{DA576258-952C-43FB-9322-501080369983}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:pPr/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
@@ -4507,11 +4129,6 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>RB POW 060125</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="F5">
             <v>0</v>
@@ -4525,11 +4142,6 @@
         <row r="7">
           <cell r="F7">
             <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>Sila Pilih</v>
           </cell>
         </row>
       </sheetData>
@@ -4856,10 +4468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAE1D4E-E6D1-4EB1-B4CB-10C031C7CB3C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,11 +4480,11 @@
     <col min="2" max="2" width="20" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -4884,7 +4496,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -4900,11 +4512,12 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -4922,17 +4535,19 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="b">
+        <f>IF(B4="Microwave", TRUE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="19" t="b">
@@ -4943,32 +4558,31 @@
         <f>IF(B4="Gerhadt 2", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="str">
-        <f>IF(E4=TRUE,"GH1","")</f>
-        <v/>
+      <c r="G4" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="str">
         <f>IF(F4=TRUE,"GH2","")</f>
         <v/>
       </c>
       <c r="I4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="19" t="b">
-        <f>OR(E4, F4)</f>
+        <f>OR(Form!E4=TRUE, Form!F4=TRUE)</f>
         <v>0</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="str">
-        <f>[1]Form!$B$37</f>
-        <v>Sila Pilih</v>
+      <c r="B5" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -4980,15 +4594,16 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="26" t="str">
+        <v>27</v>
+      </c>
+      <c r="B6" s="26">
         <f>[1]Form!$B$4</f>
-        <v>RB POW 060125</v>
+        <v>0</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5000,11 +4615,12 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="29">
         <v>1123090</v>
@@ -5019,13 +4635,14 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="35">
+        <v>46</v>
+      </c>
+      <c r="B8" s="33">
         <v>45977</v>
       </c>
       <c r="C8" s="19"/>
@@ -5038,18 +4655,19 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -5059,13 +4677,14 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="35">
+        <v>46</v>
+      </c>
+      <c r="B10" s="33">
         <v>46904</v>
       </c>
       <c r="C10" s="19"/>
@@ -5078,11 +4697,12 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="29">
         <v>4122020</v>
@@ -5099,13 +4719,14 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="35">
+        <v>46</v>
+      </c>
+      <c r="B12" s="33">
         <v>45964</v>
       </c>
       <c r="C12" s="19"/>
@@ -5118,11 +4739,12 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="27">
         <f>[1]Form!$B$32</f>
@@ -5130,35 +4752,37 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="b">
+        <f>IF(B14="Serbuk", TRUE)</f>
         <v>0</v>
       </c>
       <c r="E14" s="19" t="b">
@@ -5174,19 +4798,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="19" t="b">
+        <f>IF(B14="Krim/salap", TRUE)</f>
         <v>0</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="40"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -5197,11 +4823,12 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="21">
         <f>[1]Form!$B$5</f>
@@ -5217,11 +4844,12 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="24">
         <f>[1]Form!$F$5</f>
@@ -5237,13 +4865,14 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="40"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -5254,11 +4883,12 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="21">
         <f>[1]Form!$B$6</f>
@@ -5274,11 +4904,12 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="24">
         <f>[1]Form!$F$6</f>
@@ -5292,15 +4923,16 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="40"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="41"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -5309,13 +4941,14 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="21">
         <f>[1]Form!$B$7</f>
@@ -5323,7 +4956,7 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -5335,9 +4968,9 @@
       <c r="L22" s="20"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="24">
         <f>[1]Form!$F$7</f>
@@ -5482,10 +5115,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4C204-5140-4A19-BEE4-C842A1DA29A4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,103 +5134,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="70">
+      <c r="B3" s="66"/>
+      <c r="C3" s="69">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="71">
+      <c r="B4" s="66"/>
+      <c r="C4" s="70">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="75" t="str">
+      <c r="B7" s="66"/>
+      <c r="C7" s="79" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-    </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5611,92 +5244,119 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14" t="str">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14">
         <f>Form!B6</f>
-        <v>RB POW 060125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="str">
-        <f>"HNO" &amp; "₃" &amp; " B/N: (exp: " &amp; TEXT(Form!B8,"dd/mm/yy") &amp; ")"</f>
-        <v>HNO₃ B/N: (exp: 16/11/25)</v>
-      </c>
-      <c r="B11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="str">
+        <f>"HNO" &amp; "₃" &amp; " B/N:"</f>
+        <v>HNO₃ B/N:</v>
+      </c>
+      <c r="B11" s="83">
         <f>Form!B7</f>
         <v>1123090</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="str">
-        <f>"H" &amp; "₂" &amp; "O" &amp; "₂" &amp; " B/N:     (exp: " &amp; TEXT(Form!B10,"dd/mm/yy") &amp; ")"</f>
-        <v>H₂O₂ B/N:     (exp: 31/05/28)</v>
-      </c>
-      <c r="B12" s="59" t="str">
+      <c r="C11" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="str">
+        <f>"(exp: " &amp; TEXT(Form!B8,"dd/mm/yy") &amp; ")"</f>
+        <v>(exp: 16/11/25)</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="str">
+        <f>"H" &amp; "₂" &amp; "O" &amp; "₂" &amp; " B/N:"</f>
+        <v>H₂O₂ B/N:</v>
+      </c>
+      <c r="B13" s="83" t="str">
         <f>Form!B9</f>
         <v>K55266610321</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C13" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="67"/>
-    </row>
-    <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="str">
-        <f>"H" &amp; "Cl" &amp; " B/N:      (exp: " &amp; TEXT(Form!B12,"dd/mm/yy") &amp; ")"</f>
-        <v>HCl B/N:      (exp: 03/11/25)</v>
-      </c>
-      <c r="B14" s="38">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="str">
+        <f>"(exp: " &amp; TEXT(Form!B10,"dd/mm/yy") &amp; ")"</f>
+        <v>(exp: 31/05/28)</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="str">
+        <f>"H" &amp; "Cl" &amp; " B/N:"</f>
+        <v>HCl B/N:</v>
+      </c>
+      <c r="B16" s="44">
         <f>Form!B11</f>
         <v>4122020</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="str">
+        <f>"(exp: " &amp; TEXT(Form!B12,"dd/mm/yy") &amp; ")"</f>
+        <v>(exp: 03/11/25)</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="36" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="34" t="str">
         <f>IF([1]Form!$F$2&gt;0,
     IF(AND([1]Form!$F$2&gt;0, [1]Form!$F$3&gt;0),
        "A: " &amp; [1]Form!$F$2 &amp; "     B: " &amp; [1]Form!$F$3,
@@ -5704,315 +5364,317 @@
     "")</f>
         <v/>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45">
+      <c r="F20" s="34"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48">
         <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="13" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45">
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48">
         <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="89"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="13" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="51"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45">
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48">
         <f>Form!B22</f>
         <v>0</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="13" t="s">
+      <c r="B36" s="76"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="51"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="H37" s="54"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
+  <mergeCells count="54">
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6052,16 +5714,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1152525</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:colOff>714375</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>523875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6076,13 +5738,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6098,13 +5760,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6120,13 +5782,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>657225</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6142,13 +5804,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>523875</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6164,13 +5826,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>

--- a/Desktop/Borang 2.0/Digestion/RB & IQC.xlsx
+++ b/Desktop/Borang 2.0/Digestion/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B193A278-E109-4795-B335-681E88B05666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5569598-5661-4106-A77C-C57B102214E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,132 +821,141 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -971,6 +980,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -979,22 +994,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3958,11 +3961,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>373674</xdr:colOff>
+      <xdr:colOff>373673</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80597</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="783980" cy="446942"/>
+    <xdr:ext cx="857249" cy="446942"/>
     <xdr:sp macro="" textlink="E20">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -3976,8 +3979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667251" y="3831982"/>
-          <a:ext cx="783980" cy="446942"/>
+          <a:off x="4667250" y="3751385"/>
+          <a:ext cx="857249" cy="446942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4005,6 +4008,26 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:fld id="{5D33282B-A513-4EAC-819C-B4A995B4306E}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4470,8 +4493,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,10 +4504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="42"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -4727,7 +4750,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="33">
-        <v>45964</v>
+        <v>45727</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -4809,10 +4832,10 @@
       <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4869,10 +4892,10 @@
       <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -4929,10 +4952,10 @@
       <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -5117,8 +5140,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5134,101 +5157,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="69">
+      <c r="B3" s="70"/>
+      <c r="C3" s="73">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="70">
+      <c r="B4" s="70"/>
+      <c r="C4" s="74">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="79" t="str">
+      <c r="B7" s="70"/>
+      <c r="C7" s="82" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5252,97 +5275,97 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="str">
+      <c r="A11" s="36" t="str">
         <f>"HNO" &amp; "₃" &amp; " B/N:"</f>
         <v>HNO₃ B/N:</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="86">
         <f>Form!B7</f>
         <v>1123090</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="37" t="str">
         <f>"(exp: " &amp; TEXT(Form!B8,"dd/mm/yy") &amp; ")"</f>
         <v>(exp: 16/11/25)</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="str">
+      <c r="A13" s="80" t="str">
         <f>"H" &amp; "₂" &amp; "O" &amp; "₂" &amp; " B/N:"</f>
         <v>H₂O₂ B/N:</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="86" t="str">
         <f>Form!B9</f>
         <v>K55266610321</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="76"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
     </row>
     <row r="14" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="55" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="37" t="str">
         <f>"(exp: " &amp; TEXT(Form!B10,"dd/mm/yy") &amp; ")"</f>
         <v>(exp: 31/05/28)</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="str">
+      <c r="A16" s="36" t="str">
         <f>"H" &amp; "Cl" &amp; " B/N:"</f>
         <v>HCl B/N:</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <f>Form!B11</f>
         <v>4122020</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="str">
+      <c r="A17" s="38" t="str">
         <f>"(exp: " &amp; TEXT(Form!B12,"dd/mm/yy") &amp; ")"</f>
-        <v>(exp: 03/11/25)</v>
-      </c>
-      <c r="B17" s="45"/>
+        <v>(exp: 11/03/25)</v>
+      </c>
+      <c r="B17" s="44"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
@@ -5359,8 +5382,8 @@
       <c r="E20" s="34" t="str">
         <f>IF([1]Form!$F$2&gt;0,
     IF(AND([1]Form!$F$2&gt;0, [1]Form!$F$3&gt;0),
-       "A: " &amp; [1]Form!$F$2 &amp; "     B: " &amp; [1]Form!$F$3,
-       [1]Form!$F$2),
+       "A: " &amp; TEXT([1]Form!$F$2, "0.000") &amp; "     B: " &amp; TEXT([1]Form!$F$3, "0.000"),
+       TEXT([1]Form!$F$2, "0.000")),
     "")</f>
         <v/>
       </c>
@@ -5369,11 +5392,11 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5381,38 +5404,38 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="46" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48">
+      <c r="E23" s="46"/>
+      <c r="F23" s="47">
         <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="13" t="s">
         <v>19</v>
       </c>
@@ -5422,9 +5445,9 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="90"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="12"/>
       <c r="E25" s="7"/>
       <c r="F25" s="10"/>
@@ -5432,56 +5455,56 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="89" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="53" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="54"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="46" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48">
+      <c r="E28" s="46"/>
+      <c r="F28" s="47">
         <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="13" t="s">
         <v>19</v>
       </c>
@@ -5491,9 +5514,9 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="90"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
       <c r="F30" s="10"/>
@@ -5501,56 +5524,56 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="86" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="53" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="46" t="s">
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48">
+      <c r="E33" s="46"/>
+      <c r="F33" s="47">
         <f>Form!B22</f>
         <v>0</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="13" t="s">
         <v>19</v>
       </c>
@@ -5560,9 +5583,9 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="90"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="12"/>
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
@@ -5570,34 +5593,34 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="86" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="53" t="s">
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="54"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -5645,12 +5668,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C12:D13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:B3"/>
